--- a/Jogos_da_Semana_FlashScore_2025-02-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-19.xlsx
@@ -713,7 +713,7 @@
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O2" t="n">
         <v>1.17</v>
@@ -728,10 +728,10 @@
         <v>2.38</v>
       </c>
       <c r="S2" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="T2" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="U2" t="n">
         <v>2.38</v>
@@ -846,7 +846,7 @@
         <v>4.2</v>
       </c>
       <c r="J3" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
@@ -894,7 +894,7 @@
         <v>2.1</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="AA3" t="n">
         <v>5.5</v>
@@ -995,7 +995,7 @@
         <v>4.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
@@ -1004,10 +1004,10 @@
         <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
@@ -1016,10 +1016,10 @@
         <v>3.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -1036,16 +1036,16 @@
         <v>2.63</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="AA4" t="n">
         <v>6.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC4" t="n">
         <v>8.5</v>
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H5" t="n">
         <v>3.75</v>
       </c>
       <c r="I5" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="J5" t="n">
         <v>5.5</v>
@@ -1177,10 +1177,10 @@
         <v>3</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA5" t="n">
         <v>15</v>
@@ -1213,7 +1213,7 @@
         <v>51</v>
       </c>
       <c r="AK5" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL5" t="n">
         <v>7</v>
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H6" t="n">
         <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J6" t="n">
         <v>3.2</v>
@@ -1283,7 +1283,7 @@
         <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
@@ -1366,7 +1366,7 @@
         <v>10</v>
       </c>
       <c r="AO6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP6" t="n">
         <v>21</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-19.xlsx
@@ -728,10 +728,10 @@
         <v>2.38</v>
       </c>
       <c r="S2" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="T2" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="U2" t="n">
         <v>2.38</v>
@@ -767,7 +767,7 @@
         <v>29</v>
       </c>
       <c r="AF2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG2" t="n">
         <v>17</v>
@@ -840,10 +840,10 @@
         <v>1.9</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J3" t="n">
         <v>2.63</v>
@@ -855,16 +855,16 @@
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q3" t="n">
         <v>2.35</v>
@@ -879,10 +879,10 @@
         <v>1.26</v>
       </c>
       <c r="U3" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="V3" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W3" t="n">
         <v>1.53</v>
@@ -897,7 +897,7 @@
         <v>1.67</v>
       </c>
       <c r="AA3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB3" t="n">
         <v>8</v>
@@ -918,7 +918,7 @@
         <v>7</v>
       </c>
       <c r="AH3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI3" t="n">
         <v>19</v>
@@ -930,7 +930,7 @@
         <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM3" t="n">
         <v>21</v>
@@ -939,7 +939,7 @@
         <v>15</v>
       </c>
       <c r="AO3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP3" t="n">
         <v>41</v>
@@ -1004,10 +1004,10 @@
         <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
@@ -1016,10 +1016,10 @@
         <v>3.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -1145,10 +1145,10 @@
         <v>2.2</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O5" t="n">
         <v>1.25</v>
@@ -1157,18 +1157,18 @@
         <v>3.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R5" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V5" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W5" t="n">
         <v>1.36</v>
@@ -1268,22 +1268,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H6" t="n">
         <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
@@ -1333,10 +1333,10 @@
         <v>10</v>
       </c>
       <c r="AD6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="n">
         <v>29</v>
@@ -1360,13 +1360,13 @@
         <v>9.5</v>
       </c>
       <c r="AM6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN6" t="n">
         <v>10</v>
       </c>
       <c r="AO6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP6" t="n">
         <v>21</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-19.xlsx
@@ -840,10 +840,10 @@
         <v>1.9</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J3" t="n">
         <v>2.63</v>
@@ -855,16 +855,16 @@
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q3" t="n">
         <v>2.35</v>
@@ -879,10 +879,10 @@
         <v>1.26</v>
       </c>
       <c r="U3" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="V3" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W3" t="n">
         <v>1.53</v>
@@ -897,7 +897,7 @@
         <v>1.67</v>
       </c>
       <c r="AA3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB3" t="n">
         <v>8</v>
@@ -918,7 +918,7 @@
         <v>7</v>
       </c>
       <c r="AH3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI3" t="n">
         <v>19</v>
@@ -930,7 +930,7 @@
         <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM3" t="n">
         <v>21</v>
@@ -939,7 +939,7 @@
         <v>15</v>
       </c>
       <c r="AO3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP3" t="n">
         <v>41</v>
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H4" t="n">
         <v>3.6</v>
@@ -995,7 +995,7 @@
         <v>4.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
@@ -1045,7 +1045,7 @@
         <v>6.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC4" t="n">
         <v>8.5</v>
@@ -1060,7 +1060,7 @@
         <v>29</v>
       </c>
       <c r="AG4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH4" t="n">
         <v>7</v>
@@ -1130,7 +1130,7 @@
         <v>5.5</v>
       </c>
       <c r="H5" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I5" t="n">
         <v>1.57</v>
@@ -1139,16 +1139,16 @@
         <v>5.5</v>
       </c>
       <c r="K5" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L5" t="n">
         <v>2.2</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
         <v>1.25</v>
@@ -1213,7 +1213,7 @@
         <v>51</v>
       </c>
       <c r="AK5" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL5" t="n">
         <v>7</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-19.xlsx
@@ -873,10 +873,10 @@
         <v>1.57</v>
       </c>
       <c r="S3" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="T3" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="U3" t="n">
         <v>4.5</v>
@@ -1010,10 +1010,10 @@
         <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q4" t="n">
         <v>2.1</v>
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
         <v>3.8</v>
       </c>
       <c r="I5" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="J5" t="n">
         <v>5.5</v>
@@ -1145,10 +1145,10 @@
         <v>2.2</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O5" t="n">
         <v>1.25</v>
@@ -1177,16 +1177,16 @@
         <v>3</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AA5" t="n">
         <v>15</v>
       </c>
       <c r="AB5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC5" t="n">
         <v>17</v>
@@ -1201,7 +1201,7 @@
         <v>41</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
         <v>7.5</v>
@@ -1216,10 +1216,10 @@
         <v>251</v>
       </c>
       <c r="AL5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AM5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AN5" t="n">
         <v>8.5</v>
@@ -1231,7 +1231,7 @@
         <v>13</v>
       </c>
       <c r="AQ5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J6" t="n">
         <v>3.1</v>
@@ -1292,10 +1292,10 @@
         <v>11</v>
       </c>
       <c r="O6" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P6" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q6" t="n">
         <v>1.93</v>
@@ -1327,10 +1327,10 @@
         <v>9</v>
       </c>
       <c r="AB6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD6" t="n">
         <v>23</v>
@@ -1339,7 +1339,7 @@
         <v>19</v>
       </c>
       <c r="AF6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG6" t="n">
         <v>11</v>
@@ -1363,7 +1363,7 @@
         <v>15</v>
       </c>
       <c r="AN6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO6" t="n">
         <v>29</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-19.xlsx
@@ -728,10 +728,10 @@
         <v>2.38</v>
       </c>
       <c r="S2" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="T2" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="U2" t="n">
         <v>2.38</v>
@@ -873,7 +873,7 @@
         <v>1.57</v>
       </c>
       <c r="S3" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T3" t="n">
         <v>1.25</v>
@@ -992,7 +992,7 @@
         <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J4" t="n">
         <v>2.4</v>
@@ -1004,22 +1004,22 @@
         <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -1051,7 +1051,7 @@
         <v>8.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE4" t="n">
         <v>15</v>
@@ -1060,7 +1060,7 @@
         <v>29</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH4" t="n">
         <v>7</v>
@@ -1268,7 +1268,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H6" t="n">
         <v>3.4</v>
@@ -1283,7 +1283,7 @@
         <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
@@ -1324,7 +1324,7 @@
         <v>2.05</v>
       </c>
       <c r="AA6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB6" t="n">
         <v>12</v>
@@ -1357,7 +1357,7 @@
         <v>201</v>
       </c>
       <c r="AL6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM6" t="n">
         <v>15</v>
@@ -1369,7 +1369,7 @@
         <v>29</v>
       </c>
       <c r="AP6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ6" t="n">
         <v>29</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-19.xlsx
@@ -728,10 +728,10 @@
         <v>2.38</v>
       </c>
       <c r="S2" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="T2" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U2" t="n">
         <v>2.38</v>
@@ -948,10 +948,10 @@
         <v>51</v>
       </c>
       <c r="AR3" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1007,7 +1007,7 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
@@ -1268,22 +1268,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H6" t="n">
         <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
@@ -1324,22 +1324,22 @@
         <v>2.05</v>
       </c>
       <c r="AA6" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG6" t="n">
         <v>11</v>
@@ -1357,19 +1357,19 @@
         <v>201</v>
       </c>
       <c r="AL6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN6" t="n">
         <v>10</v>
       </c>
-      <c r="AM6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>11</v>
-      </c>
       <c r="AO6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ6" t="n">
         <v>29</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-19.xlsx
@@ -701,10 +701,10 @@
         <v>1.83</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K2" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L2" t="n">
         <v>2.38</v>
@@ -716,40 +716,40 @@
         <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y2" t="n">
         <v>1.57</v>
       </c>
-      <c r="R2" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1.53</v>
-      </c>
       <c r="Z2" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AA2" t="n">
         <v>17</v>
@@ -776,7 +776,7 @@
         <v>8.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ2" t="n">
         <v>41</v>
@@ -788,19 +788,19 @@
         <v>11</v>
       </c>
       <c r="AM2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN2" t="n">
         <v>9.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP2" t="n">
         <v>15</v>
       </c>
       <c r="AQ2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr"/>
@@ -855,16 +855,16 @@
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
         <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P3" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q3" t="n">
         <v>2.35</v>
@@ -882,7 +882,7 @@
         <v>4.5</v>
       </c>
       <c r="V3" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="W3" t="n">
         <v>1.53</v>
@@ -986,102 +986,102 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="J4" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="P4" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V4" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="W4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AA4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC4" t="n">
         <v>8.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
         <v>15</v>
       </c>
       <c r="AF4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG4" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AH4" t="n">
         <v>7</v>
       </c>
       <c r="AI4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK4" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="AL4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM4" t="n">
         <v>23</v>
       </c>
       <c r="AN4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO4" t="n">
         <v>51</v>
@@ -1090,7 +1090,7 @@
         <v>41</v>
       </c>
       <c r="AQ4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr"/>
@@ -1127,34 +1127,34 @@
         </is>
       </c>
       <c r="G5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J5" t="n">
         <v>5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5.5</v>
       </c>
       <c r="K5" t="n">
         <v>2.3</v>
       </c>
       <c r="L5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
         <v>12</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="P5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q5" t="n">
         <v>1.8</v>
@@ -1168,7 +1168,7 @@
         <v>3</v>
       </c>
       <c r="V5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W5" t="n">
         <v>1.36</v>
@@ -1189,7 +1189,7 @@
         <v>26</v>
       </c>
       <c r="AC5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD5" t="n">
         <v>51</v>
@@ -1207,13 +1207,13 @@
         <v>7.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ5" t="n">
         <v>51</v>
       </c>
       <c r="AK5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL5" t="n">
         <v>7.5</v>
@@ -1225,7 +1225,7 @@
         <v>8.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP5" t="n">
         <v>13</v>
@@ -1409,48 +1409,48 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="H7" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K7" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L7" t="n">
         <v>5.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O7" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P7" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="R7" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V7" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W7" t="n">
         <v>1.33</v>
@@ -1459,34 +1459,34 @@
         <v>3.25</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z7" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB7" t="n">
         <v>8</v>
       </c>
       <c r="AC7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF7" t="n">
         <v>23</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI7" t="n">
         <v>15</v>
@@ -1498,7 +1498,7 @@
         <v>201</v>
       </c>
       <c r="AL7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM7" t="n">
         <v>29</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-19.xlsx
@@ -716,22 +716,22 @@
         <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P2" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R2" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S2" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="T2" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="U2" t="n">
         <v>2.5</v>
@@ -855,16 +855,16 @@
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
         <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q3" t="n">
         <v>2.35</v>
@@ -882,7 +882,7 @@
         <v>4.5</v>
       </c>
       <c r="V3" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="W3" t="n">
         <v>1.53</v>
@@ -1004,13 +1004,13 @@
         <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
         <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
         <v>3</v>
@@ -1024,7 +1024,7 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V4" t="n">
         <v>1.22</v>
@@ -1130,63 +1130,67 @@
         <v>4.75</v>
       </c>
       <c r="H5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="J5" t="n">
         <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="n">
         <v>1.8</v>
       </c>
-      <c r="R5" t="n">
-        <v>2</v>
-      </c>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V5" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="W5" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="X5" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="AA5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC5" t="n">
         <v>15</v>
@@ -1195,31 +1199,31 @@
         <v>51</v>
       </c>
       <c r="AE5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AF5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AH5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI5" t="n">
         <v>15</v>
       </c>
       <c r="AJ5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK5" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL5" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AM5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN5" t="n">
         <v>8.5</v>
@@ -1228,10 +1232,10 @@
         <v>13</v>
       </c>
       <c r="AP5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
@@ -1409,16 +1413,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="I7" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K7" t="n">
         <v>2.3</v>
@@ -1430,7 +1434,7 @@
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O7" t="n">
         <v>1.22</v>
@@ -1439,10 +1443,10 @@
         <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R7" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
@@ -1468,7 +1472,7 @@
         <v>7.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC7" t="n">
         <v>8.5</v>
@@ -1483,19 +1487,19 @@
         <v>23</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ7" t="n">
         <v>51</v>
       </c>
       <c r="AK7" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL7" t="n">
         <v>15</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-19.xlsx
@@ -716,22 +716,22 @@
         <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R2" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="T2" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U2" t="n">
         <v>2.5</v>
@@ -837,28 +837,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
         <v>4.2</v>
       </c>
       <c r="J3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L3" t="n">
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
@@ -867,10 +867,10 @@
         <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S3" t="n">
         <v>3.85</v>
@@ -879,10 +879,10 @@
         <v>1.25</v>
       </c>
       <c r="U3" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="V3" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W3" t="n">
         <v>1.53</v>
@@ -891,10 +891,10 @@
         <v>2.38</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA3" t="n">
         <v>5.5</v>
@@ -903,16 +903,16 @@
         <v>8</v>
       </c>
       <c r="AC3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE3" t="n">
         <v>19</v>
       </c>
       <c r="AF3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG3" t="n">
         <v>7</v>
@@ -921,19 +921,19 @@
         <v>6.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK3" t="n">
         <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN3" t="n">
         <v>15</v>
@@ -948,10 +948,10 @@
         <v>51</v>
       </c>
       <c r="AR3" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AS3" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="4">
@@ -986,19 +986,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H4" t="n">
         <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L4" t="n">
         <v>5.5</v>
@@ -1024,10 +1024,10 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V4" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W4" t="n">
         <v>1.5</v>
@@ -1045,16 +1045,16 @@
         <v>6</v>
       </c>
       <c r="AB4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
         <v>13</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
         <v>34</v>
@@ -1063,7 +1063,7 @@
         <v>8</v>
       </c>
       <c r="AH4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI4" t="n">
         <v>19</v>
@@ -1130,16 +1130,16 @@
         <v>4.75</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I5" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="J5" t="n">
         <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L5" t="n">
         <v>2.2</v>
@@ -1151,28 +1151,28 @@
         <v>15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="T5" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="U5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V5" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W5" t="n">
         <v>1.3</v>
@@ -1202,7 +1202,7 @@
         <v>34</v>
       </c>
       <c r="AF5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG5" t="n">
         <v>15</v>
@@ -1220,10 +1220,10 @@
         <v>151</v>
       </c>
       <c r="AL5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AN5" t="n">
         <v>8.5</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="H7" t="n">
         <v>4.33</v>
@@ -1472,7 +1472,7 @@
         <v>7.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC7" t="n">
         <v>8.5</v>
@@ -1481,7 +1481,7 @@
         <v>12</v>
       </c>
       <c r="AE7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF7" t="n">
         <v>23</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-19.xlsx
@@ -692,64 +692,64 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="J2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L2" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P2" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.62</v>
       </c>
-      <c r="R2" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y2" t="n">
         <v>1.53</v>
       </c>
-      <c r="W2" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1.57</v>
-      </c>
       <c r="Z2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AA2" t="n">
         <v>17</v>
@@ -767,7 +767,7 @@
         <v>29</v>
       </c>
       <c r="AF2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="n">
         <v>17</v>
@@ -776,31 +776,31 @@
         <v>8.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ2" t="n">
         <v>41</v>
       </c>
       <c r="AK2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN2" t="n">
         <v>9.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP2" t="n">
         <v>15</v>
       </c>
       <c r="AQ2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr"/>
@@ -837,34 +837,34 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H3" t="n">
         <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J3" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="K3" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L3" t="n">
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
         <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="P3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q3" t="n">
         <v>2.4</v>
@@ -873,16 +873,16 @@
         <v>1.53</v>
       </c>
       <c r="S3" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="U3" t="n">
         <v>5</v>
       </c>
       <c r="V3" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="W3" t="n">
         <v>1.53</v>
@@ -900,13 +900,13 @@
         <v>5.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC3" t="n">
         <v>9.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE3" t="n">
         <v>19</v>
@@ -933,13 +933,13 @@
         <v>9</v>
       </c>
       <c r="AM3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN3" t="n">
         <v>15</v>
       </c>
       <c r="AO3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP3" t="n">
         <v>41</v>
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H4" t="n">
         <v>3.5</v>
@@ -1004,16 +1004,16 @@
         <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q4" t="n">
         <v>2.2</v>
@@ -1027,7 +1027,7 @@
         <v>4</v>
       </c>
       <c r="V4" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W4" t="n">
         <v>1.5</v>
@@ -1045,16 +1045,16 @@
         <v>6</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD4" t="n">
         <v>13</v>
       </c>
       <c r="AE4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
         <v>34</v>
@@ -1127,73 +1127,73 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I5" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="J5" t="n">
         <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="L5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N5" t="n">
+        <v>17</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Z5" t="n">
         <v>2.2</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N5" t="n">
-        <v>15</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>2.1</v>
-      </c>
       <c r="AA5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB5" t="n">
         <v>29</v>
       </c>
       <c r="AC5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD5" t="n">
         <v>51</v>
@@ -1202,13 +1202,13 @@
         <v>34</v>
       </c>
       <c r="AF5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI5" t="n">
         <v>15</v>
@@ -1220,10 +1220,10 @@
         <v>151</v>
       </c>
       <c r="AL5" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AM5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AN5" t="n">
         <v>8.5</v>
@@ -1413,28 +1413,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="H7" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="I7" t="n">
-        <v>5.25</v>
+        <v>6.25</v>
       </c>
       <c r="J7" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L7" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O7" t="n">
         <v>1.22</v>
@@ -1443,10 +1443,10 @@
         <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R7" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
@@ -1463,55 +1463,55 @@
         <v>3.25</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AA7" t="n">
         <v>7.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC7" t="n">
         <v>8.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE7" t="n">
         <v>12</v>
       </c>
       <c r="AF7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG7" t="n">
         <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ7" t="n">
         <v>51</v>
       </c>
       <c r="AK7" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP7" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-19.xlsx
@@ -722,25 +722,25 @@
         <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="R2" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="T2" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="V2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W2" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X2" t="n">
         <v>3.5</v>
@@ -837,40 +837,40 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H3" t="n">
         <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J3" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="K3" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L3" t="n">
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
         <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P3" t="n">
         <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="S3" t="n">
         <v>4</v>
@@ -882,7 +882,7 @@
         <v>5</v>
       </c>
       <c r="V3" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="W3" t="n">
         <v>1.53</v>
@@ -900,13 +900,13 @@
         <v>5.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC3" t="n">
         <v>9.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE3" t="n">
         <v>19</v>
@@ -933,13 +933,13 @@
         <v>9</v>
       </c>
       <c r="AM3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN3" t="n">
         <v>15</v>
       </c>
       <c r="AO3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP3" t="n">
         <v>41</v>
@@ -948,10 +948,10 @@
         <v>51</v>
       </c>
       <c r="AR3" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="4">
@@ -986,13 +986,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H4" t="n">
         <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J4" t="n">
         <v>2.4</v>
@@ -1004,27 +1004,27 @@
         <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V4" t="n">
         <v>1.22</v>
@@ -1042,13 +1042,13 @@
         <v>1.67</v>
       </c>
       <c r="AA4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB4" t="n">
         <v>7</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
         <v>13</v>
@@ -1078,7 +1078,7 @@
         <v>11</v>
       </c>
       <c r="AM4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN4" t="n">
         <v>17</v>
@@ -1127,73 +1127,73 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H5" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="I5" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="J5" t="n">
         <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L5" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="M5" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O5" t="n">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="R5" t="n">
-        <v>2.35</v>
+        <v>2.07</v>
       </c>
       <c r="S5" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="U5" t="n">
-        <v>2.37</v>
+        <v>2.75</v>
       </c>
       <c r="V5" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="W5" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="X5" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AA5" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AB5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD5" t="n">
         <v>51</v>
@@ -1202,13 +1202,13 @@
         <v>34</v>
       </c>
       <c r="AF5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AI5" t="n">
         <v>15</v>
@@ -1217,13 +1217,13 @@
         <v>41</v>
       </c>
       <c r="AK5" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL5" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AM5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AN5" t="n">
         <v>8.5</v>
@@ -1232,10 +1232,10 @@
         <v>13</v>
       </c>
       <c r="AP5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
@@ -1413,13 +1413,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H7" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I7" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
         <v>2</v>
@@ -1428,13 +1428,13 @@
         <v>2.4</v>
       </c>
       <c r="L7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O7" t="n">
         <v>1.22</v>
@@ -1443,7 +1443,7 @@
         <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R7" t="n">
         <v>2.1</v>
@@ -1451,10 +1451,10 @@
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V7" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W7" t="n">
         <v>1.33</v>
@@ -1472,25 +1472,25 @@
         <v>7.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC7" t="n">
         <v>8.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
         <v>12</v>
       </c>
       <c r="AF7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG7" t="n">
         <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI7" t="n">
         <v>19</v>
@@ -1499,16 +1499,16 @@
         <v>51</v>
       </c>
       <c r="AK7" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN7" t="n">
         <v>17</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>19</v>
       </c>
       <c r="AO7" t="n">
         <v>67</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-19.xlsx
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
@@ -740,7 +740,7 @@
         <v>1.57</v>
       </c>
       <c r="W2" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X2" t="n">
         <v>3.5</v>
@@ -755,10 +755,10 @@
         <v>17</v>
       </c>
       <c r="AB2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD2" t="n">
         <v>41</v>
@@ -837,13 +837,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
         <v>2.75</v>
@@ -852,7 +852,7 @@
         <v>1.95</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M3" t="n">
         <v>1.1</v>
@@ -870,7 +870,7 @@
         <v>2.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
         <v>4</v>
@@ -885,10 +885,10 @@
         <v>1.17</v>
       </c>
       <c r="W3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y3" t="n">
         <v>2.2</v>
@@ -909,13 +909,13 @@
         <v>17</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
         <v>41</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH3" t="n">
         <v>6.5</v>
@@ -930,7 +930,7 @@
         <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM3" t="n">
         <v>19</v>
@@ -948,10 +948,10 @@
         <v>51</v>
       </c>
       <c r="AR3" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="4">
@@ -986,13 +986,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H4" t="n">
         <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
         <v>2.4</v>
@@ -1004,30 +1004,30 @@
         <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V4" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W4" t="n">
         <v>1.5</v>
@@ -1130,10 +1130,10 @@
         <v>4.75</v>
       </c>
       <c r="H5" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="J5" t="n">
         <v>5</v>
@@ -1142,25 +1142,25 @@
         <v>2.3</v>
       </c>
       <c r="L5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="R5" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="S5" t="n">
         <v>2</v>
@@ -1169,13 +1169,13 @@
         <v>1.8</v>
       </c>
       <c r="U5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V5" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W5" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X5" t="n">
         <v>3.25</v>
@@ -1199,7 +1199,7 @@
         <v>51</v>
       </c>
       <c r="AE5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF5" t="n">
         <v>41</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H7" t="n">
         <v>4.5</v>
@@ -1431,22 +1431,22 @@
         <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R7" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-19.xlsx
@@ -692,22 +692,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
         <v>2.4</v>
       </c>
       <c r="L2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -728,16 +728,16 @@
         <v>2.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U2" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="V2" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W2" t="n">
         <v>1.29</v>
@@ -746,10 +746,10 @@
         <v>3.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AA2" t="n">
         <v>17</v>
@@ -764,13 +764,13 @@
         <v>41</v>
       </c>
       <c r="AE2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF2" t="n">
         <v>29</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH2" t="n">
         <v>8.5</v>
@@ -788,13 +788,13 @@
         <v>12</v>
       </c>
       <c r="AM2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN2" t="n">
         <v>9.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP2" t="n">
         <v>15</v>
@@ -986,19 +986,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J4" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
         <v>5.5</v>
@@ -1016,10 +1016,10 @@
         <v>3.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -1030,25 +1030,25 @@
         <v>1.25</v>
       </c>
       <c r="W4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AA4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB4" t="n">
         <v>7</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD4" t="n">
         <v>13</v>
@@ -1057,13 +1057,13 @@
         <v>15</v>
       </c>
       <c r="AF4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI4" t="n">
         <v>19</v>
@@ -1072,10 +1072,10 @@
         <v>67</v>
       </c>
       <c r="AK4" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AL4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM4" t="n">
         <v>26</v>
@@ -1463,10 +1463,10 @@
         <v>3.25</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AA7" t="n">
         <v>7.5</v>
@@ -1487,7 +1487,7 @@
         <v>23</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
         <v>9</v>
@@ -1502,10 +1502,10 @@
         <v>251</v>
       </c>
       <c r="AL7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN7" t="n">
         <v>17</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-19.xlsx
@@ -692,22 +692,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
         <v>2.4</v>
       </c>
       <c r="L2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -722,22 +722,22 @@
         <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S2" t="n">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="T2" t="n">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="U2" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="V2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W2" t="n">
         <v>1.29</v>
@@ -746,10 +746,10 @@
         <v>3.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AA2" t="n">
         <v>17</v>
@@ -758,19 +758,19 @@
         <v>23</v>
       </c>
       <c r="AC2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD2" t="n">
         <v>41</v>
       </c>
       <c r="AE2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF2" t="n">
         <v>29</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH2" t="n">
         <v>8.5</v>
@@ -782,19 +782,19 @@
         <v>41</v>
       </c>
       <c r="AK2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM2" t="n">
         <v>12</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>13</v>
       </c>
       <c r="AN2" t="n">
         <v>9.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP2" t="n">
         <v>15</v>
@@ -948,10 +948,10 @@
         <v>51</v>
       </c>
       <c r="AR3" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="4">
@@ -986,22 +986,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
@@ -1016,10 +1016,10 @@
         <v>3.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -1042,19 +1042,19 @@
         <v>1.73</v>
       </c>
       <c r="AA4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
         <v>29</v>
@@ -1063,25 +1063,25 @@
         <v>8.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK4" t="n">
         <v>401</v>
       </c>
       <c r="AL4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM4" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AN4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO4" t="n">
         <v>51</v>
@@ -1090,7 +1090,7 @@
         <v>41</v>
       </c>
       <c r="AQ4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-19.xlsx
@@ -849,7 +849,7 @@
         <v>2.75</v>
       </c>
       <c r="K3" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L3" t="n">
         <v>4.75</v>
@@ -948,10 +948,10 @@
         <v>51</v>
       </c>
       <c r="AR3" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="4">
@@ -1413,16 +1413,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H7" t="n">
         <v>4.5</v>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K7" t="n">
         <v>2.4</v>
@@ -1469,7 +1469,7 @@
         <v>1.95</v>
       </c>
       <c r="AA7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB7" t="n">
         <v>7.5</v>
@@ -1487,13 +1487,13 @@
         <v>23</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ7" t="n">
         <v>51</v>
@@ -1505,7 +1505,7 @@
         <v>17</v>
       </c>
       <c r="AM7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN7" t="n">
         <v>17</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-19.xlsx
@@ -837,22 +837,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H3" t="n">
         <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J3" t="n">
         <v>2.75</v>
       </c>
       <c r="K3" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>1.1</v>
@@ -909,7 +909,7 @@
         <v>17</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
         <v>41</v>
@@ -948,10 +948,10 @@
         <v>51</v>
       </c>
       <c r="AR3" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="4">
@@ -1416,63 +1416,67 @@
         <v>1.5</v>
       </c>
       <c r="H7" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I7" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O7" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P7" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="R7" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
+        <v>2.3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.83</v>
+      </c>
       <c r="U7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W7" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="X7" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AA7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB7" t="n">
         <v>8</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>7.5</v>
       </c>
       <c r="AC7" t="n">
         <v>8.5</v>
@@ -1481,25 +1485,25 @@
         <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AH7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI7" t="n">
         <v>17</v>
       </c>
       <c r="AJ7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK7" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL7" t="n">
         <v>17</v>
@@ -1511,7 +1515,7 @@
         <v>17</v>
       </c>
       <c r="AO7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP7" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-19.xlsx
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H3" t="n">
         <v>3.2</v>
@@ -846,13 +846,13 @@
         <v>4.1</v>
       </c>
       <c r="J3" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K3" t="n">
         <v>1.95</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M3" t="n">
         <v>1.1</v>
@@ -861,16 +861,16 @@
         <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S3" t="n">
         <v>4</v>
@@ -948,10 +948,10 @@
         <v>51</v>
       </c>
       <c r="AR3" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="4">
@@ -1443,16 +1443,16 @@
         <v>4.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="R7" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S7" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="T7" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U7" t="n">
         <v>2.5</v>
